--- a/4578 Otsuka.xlsx
+++ b/4578 Otsuka.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95F4D529-4879-469D-A20A-4EDDCA97413E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BA1E4A3-7570-4A62-84DC-4B256E0EECF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17340" yWindow="255" windowWidth="33330" windowHeight="20340" xr2:uid="{8AEC93ED-DE78-43E1-A3CC-6845D1322955}"/>
+    <workbookView xWindow="-50100" yWindow="2280" windowWidth="22875" windowHeight="18315" xr2:uid="{8AEC93ED-DE78-43E1-A3CC-6845D1322955}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
+    <sheet name="Model" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="27">
   <si>
     <t>Price JPY</t>
   </si>
@@ -56,20 +57,94 @@
     <t>EV JPY</t>
   </si>
   <si>
-    <t>Q322</t>
+    <t>Q224</t>
+  </si>
+  <si>
+    <t>Acquires Jnana.</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Revenue</t>
+  </si>
+  <si>
+    <t>1H23</t>
+  </si>
+  <si>
+    <t>2H23</t>
+  </si>
+  <si>
+    <t>1H24</t>
+  </si>
+  <si>
+    <t>2H24</t>
+  </si>
+  <si>
+    <t>Pharma</t>
+  </si>
+  <si>
+    <t>Nutraceuticals</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Brand</t>
+  </si>
+  <si>
+    <t>Rexulti</t>
+  </si>
+  <si>
+    <t>Lonsurf</t>
+  </si>
+  <si>
+    <t>Abilify Maintena</t>
+  </si>
+  <si>
+    <t>Abilify Asimtufii</t>
+  </si>
+  <si>
+    <t>Samsca/Jinarc/Jynarque</t>
+  </si>
+  <si>
+    <t>COGS</t>
+  </si>
+  <si>
+    <t>Gross Profit</t>
+  </si>
+  <si>
+    <t>SG&amp;A</t>
+  </si>
+  <si>
+    <t>R&amp;D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$¥-411]#,##0"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -91,22 +166,31 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Invisible" pivot="0" table="0" count="0" xr9:uid="{7E5E502F-3126-4E2E-A6A9-E4A1969539B4}"/>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -119,9 +203,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,7 +243,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -265,7 +349,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -407,7 +491,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -415,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DC15A73-670F-4BC4-AE3C-79C8EBD781A0}">
-  <dimension ref="K2:M7"/>
+  <dimension ref="B2:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -426,68 +510,228 @@
     <col min="12" max="12" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
       <c r="K2" t="s">
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>4129</v>
-      </c>
-    </row>
-    <row r="3" spans="11:13" x14ac:dyDescent="0.2">
+        <v>8383</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="3">
-        <v>542.53009899999995</v>
+        <v>542.72572500000001</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>2240106.778771</v>
-      </c>
-    </row>
-    <row r="5" spans="11:13" x14ac:dyDescent="0.2">
+        <v>4549669.7526749996</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <f>477290+17184+249336+183100</f>
-        <v>926910</v>
+        <f>485892+220335+105160+310410</f>
+        <v>1121797</v>
       </c>
       <c r="M5" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
       <c r="K6" t="s">
         <v>4</v>
       </c>
       <c r="L6" s="1">
-        <f>32856+95530</f>
-        <v>128386</v>
+        <f>98576+67900+20322</f>
+        <v>186798</v>
       </c>
       <c r="M6" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="11:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>1441582.778771</v>
+        <v>3614670.7526749996</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F37725E7-BC53-408E-80B2-CC7BAA2C4AF9}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="2">
+        <v>650442</v>
+      </c>
+      <c r="E3" s="2">
+        <v>766728</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="2">
+        <v>226208</v>
+      </c>
+      <c r="E4" s="2">
+        <v>271826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17425</v>
+      </c>
+      <c r="E5" s="2">
+        <v>15670</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="5">
+        <v>947537</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
+        <v>1108930</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>287862</v>
+      </c>
+      <c r="E7" s="2">
+        <v>316211</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2">
+        <f>+C6-C7</f>
+        <v>659675</v>
+      </c>
+      <c r="E8" s="2">
+        <f>+E6-E7</f>
+        <v>792719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" s="2">
+        <v>372283</v>
+      </c>
+      <c r="E9" s="2">
+        <v>453722</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2">
+        <v>143949</v>
+      </c>
+      <c r="E10" s="2">
+        <v>142103</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Main!A1" display="Main" xr:uid="{ACEB3362-4F16-499F-9E09-F9AD82CDA623}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>